--- a/ApiTest/new.xlsx
+++ b/ApiTest/new.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,55 +42,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ResultCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunningTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用正确帐号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.0.186:9092/login/doLogin.html?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account|password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account=18867149072&amp;password=96e79218965eb72c92a549dd5a330112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.baidu.com/apistore/idservice/id?id=420984198704207896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APIStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2be82452f932559492d887533a7802e6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errNum":0,"retMsg":"success","retData":{"address":"湖北省孝感市汉川市","sex":"M","birthday":"1987-04-20"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2017-01-13 13:39:32</t>
+  </si>
+  <si>
+    <t>{"errNum":0,"retMsg":"success","retData":{"address":"湖北省孝感市汉川市","sex":"M","birthday":"1987-04-20"}}</t>
+  </si>
+  <si>
+    <t>2017-01-13 13:39:36</t>
+  </si>
+  <si>
     <t>ActualResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunningTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用正确帐号登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.0.186:9092/login/doLogin.html?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account|password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCCESS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,24 +216,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -480,38 +552,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="11.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="68.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="36.125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -526,55 +599,115 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
+      <c r="M1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
